--- a/www/IndicatorsPerCountry/Indonesia_CopperProduction_TerritorialRef_2002_2012_CCode_360.xlsx
+++ b/www/IndicatorsPerCountry/Indonesia_CopperProduction_TerritorialRef_2002_2012_CCode_360.xlsx
@@ -525,13 +525,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Indonesia_CopperProduction_TerritorialRef_2002_2012_CCode_360.xlsx
+++ b/www/IndicatorsPerCountry/Indonesia_CopperProduction_TerritorialRef_2002_2012_CCode_360.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="61">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,463 +39,127 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>29.9</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>41.3</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>42.8</t>
-  </si>
-  <si>
-    <t>46.1</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>39.3</t>
-  </si>
-  <si>
-    <t>39.5</t>
-  </si>
-  <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>19.6</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>19.8</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>25.9</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>56.3</t>
-  </si>
-  <si>
-    <t>61.5</t>
-  </si>
-  <si>
-    <t>76.9</t>
-  </si>
-  <si>
-    <t>96.5</t>
-  </si>
-  <si>
-    <t>111.2</t>
-  </si>
-  <si>
-    <t>97.2</t>
-  </si>
-  <si>
-    <t>108.7</t>
-  </si>
-  <si>
-    <t>114.8</t>
-  </si>
-  <si>
-    <t>105.7</t>
-  </si>
-  <si>
-    <t>91.8</t>
-  </si>
-  <si>
-    <t>111.3</t>
-  </si>
-  <si>
-    <t>109.6</t>
-  </si>
-  <si>
-    <t>125.3</t>
-  </si>
-  <si>
-    <t>142.3</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>171.9</t>
-  </si>
-  <si>
-    <t>198.7</t>
-  </si>
-  <si>
-    <t>246.7</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>214.4</t>
-  </si>
-  <si>
-    <t>221.6</t>
-  </si>
-  <si>
-    <t>222.1</t>
-  </si>
-  <si>
-    <t>237.4</t>
-  </si>
-  <si>
-    <t>231.8</t>
-  </si>
-  <si>
-    <t>225.874</t>
-  </si>
-  <si>
-    <t>245.3</t>
-  </si>
-  <si>
-    <t>261.5</t>
-  </si>
-  <si>
-    <t>235.7</t>
-  </si>
-  <si>
-    <t>259.8</t>
-  </si>
-  <si>
-    <t>248.4</t>
-  </si>
-  <si>
-    <t>232.7</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>371</t>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>71.21</t>
+  </si>
+  <si>
+    <t>69.997</t>
+  </si>
+  <si>
+    <t>75.398</t>
+  </si>
+  <si>
+    <t>57.1</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60.2</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>75.1</t>
+  </si>
+  <si>
+    <t>78.6</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>88.7</t>
+  </si>
+  <si>
+    <t>95.8</t>
+  </si>
+  <si>
+    <t>102.1</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>443.618</t>
+  </si>
+  <si>
+    <t>507.484</t>
+  </si>
+  <si>
+    <t>529.121</t>
+  </si>
+  <si>
+    <t>780.78</t>
+  </si>
+  <si>
+    <t>766.027</t>
+  </si>
+  <si>
+    <t>1012.054</t>
+  </si>
+  <si>
+    <t>1081.04</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1005.831</t>
+  </si>
+  <si>
+    <t>840.318</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>772.9</t>
+  </si>
+  <si>
+    <t>632.6</t>
+  </si>
+  <si>
+    <t>998.53</t>
+  </si>
+  <si>
+    <t>878.376</t>
+  </si>
+  <si>
+    <t>543</t>
   </si>
   <si>
     <t>360</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>524.8</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>839.6</t>
-  </si>
-  <si>
-    <t>854.1</t>
-  </si>
-  <si>
-    <t>916.3</t>
-  </si>
-  <si>
-    <t>858.8</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>958</t>
   </si>
   <si>
     <t>Description</t>
@@ -2551,7 +2215,7 @@
         <v>1844.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2568,7 +2232,7 @@
         <v>1845.0</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2585,7 +2249,7 @@
         <v>1846.0</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2602,7 +2266,7 @@
         <v>1847.0</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2619,7 +2283,7 @@
         <v>1848.0</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2636,7 +2300,7 @@
         <v>1849.0</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2653,7 +2317,7 @@
         <v>1850.0</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2670,7 +2334,7 @@
         <v>1851.0</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2687,7 +2351,7 @@
         <v>1852.0</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2704,7 +2368,7 @@
         <v>1853.0</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2721,7 +2385,7 @@
         <v>1854.0</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2738,7 +2402,7 @@
         <v>1855.0</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -2755,7 +2419,7 @@
         <v>1856.0</v>
       </c>
       <c r="E128" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -2772,7 +2436,7 @@
         <v>1857.0</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -2789,7 +2453,7 @@
         <v>1858.0</v>
       </c>
       <c r="E130" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -2806,7 +2470,7 @@
         <v>1859.0</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -2823,7 +2487,7 @@
         <v>1860.0</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -2840,7 +2504,7 @@
         <v>1861.0</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -2857,7 +2521,7 @@
         <v>1862.0</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -2874,7 +2538,7 @@
         <v>1863.0</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -2891,7 +2555,7 @@
         <v>1864.0</v>
       </c>
       <c r="E136" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -2908,7 +2572,7 @@
         <v>1865.0</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2925,7 +2589,7 @@
         <v>1866.0</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2942,7 +2606,7 @@
         <v>1867.0</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -2959,7 +2623,7 @@
         <v>1868.0</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2976,7 +2640,7 @@
         <v>1869.0</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -2993,7 +2657,7 @@
         <v>1870.0</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -3010,7 +2674,7 @@
         <v>1871.0</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -3027,7 +2691,7 @@
         <v>1872.0</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +2708,7 @@
         <v>1873.0</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -3061,7 +2725,7 @@
         <v>1874.0</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3078,7 +2742,7 @@
         <v>1875.0</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -3095,7 +2759,7 @@
         <v>1876.0</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3112,7 +2776,7 @@
         <v>1877.0</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3129,7 +2793,7 @@
         <v>1878.0</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -3146,7 +2810,7 @@
         <v>1879.0</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -3163,7 +2827,7 @@
         <v>1880.0</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -3180,7 +2844,7 @@
         <v>1881.0</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3197,7 +2861,7 @@
         <v>1882.0</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -3214,7 +2878,7 @@
         <v>1883.0</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3231,7 +2895,7 @@
         <v>1884.0</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -3248,7 +2912,7 @@
         <v>1885.0</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3265,7 +2929,7 @@
         <v>1886.0</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3282,7 +2946,7 @@
         <v>1887.0</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3299,7 +2963,7 @@
         <v>1888.0</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3316,7 +2980,7 @@
         <v>1889.0</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3333,7 +2997,7 @@
         <v>1890.0</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3350,7 +3014,7 @@
         <v>1891.0</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3367,7 +3031,7 @@
         <v>1892.0</v>
       </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3384,7 +3048,7 @@
         <v>1893.0</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3401,7 +3065,7 @@
         <v>1894.0</v>
       </c>
       <c r="E166" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3418,7 +3082,7 @@
         <v>1895.0</v>
       </c>
       <c r="E167" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3435,7 +3099,7 @@
         <v>1896.0</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3452,7 +3116,7 @@
         <v>1897.0</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -3469,7 +3133,7 @@
         <v>1898.0</v>
       </c>
       <c r="E170" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3486,7 +3150,7 @@
         <v>1899.0</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -3503,7 +3167,7 @@
         <v>1900.0</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3520,7 +3184,7 @@
         <v>1901.0</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3537,7 +3201,7 @@
         <v>1902.0</v>
       </c>
       <c r="E174" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3554,7 +3218,7 @@
         <v>1903.0</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3571,7 +3235,7 @@
         <v>1904.0</v>
       </c>
       <c r="E176" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3588,7 +3252,7 @@
         <v>1905.0</v>
       </c>
       <c r="E177" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3605,7 +3269,7 @@
         <v>1906.0</v>
       </c>
       <c r="E178" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3622,7 +3286,7 @@
         <v>1907.0</v>
       </c>
       <c r="E179" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3639,7 +3303,7 @@
         <v>1908.0</v>
       </c>
       <c r="E180" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3656,7 +3320,7 @@
         <v>1909.0</v>
       </c>
       <c r="E181" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3673,7 +3337,7 @@
         <v>1910.0</v>
       </c>
       <c r="E182" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3690,7 +3354,7 @@
         <v>1911.0</v>
       </c>
       <c r="E183" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3707,7 +3371,7 @@
         <v>1912.0</v>
       </c>
       <c r="E184" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3724,7 +3388,7 @@
         <v>1913.0</v>
       </c>
       <c r="E185" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3741,7 +3405,7 @@
         <v>1914.0</v>
       </c>
       <c r="E186" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3758,7 +3422,7 @@
         <v>1915.0</v>
       </c>
       <c r="E187" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -3775,7 +3439,7 @@
         <v>1916.0</v>
       </c>
       <c r="E188" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -3792,7 +3456,7 @@
         <v>1917.0</v>
       </c>
       <c r="E189" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -3809,7 +3473,7 @@
         <v>1918.0</v>
       </c>
       <c r="E190" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -3826,7 +3490,7 @@
         <v>1919.0</v>
       </c>
       <c r="E191" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -3843,7 +3507,7 @@
         <v>1920.0</v>
       </c>
       <c r="E192" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -3860,7 +3524,7 @@
         <v>1921.0</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -3877,7 +3541,7 @@
         <v>1922.0</v>
       </c>
       <c r="E194" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -3894,7 +3558,7 @@
         <v>1923.0</v>
       </c>
       <c r="E195" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -3911,7 +3575,7 @@
         <v>1924.0</v>
       </c>
       <c r="E196" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -3928,7 +3592,7 @@
         <v>1925.0</v>
       </c>
       <c r="E197" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -3945,7 +3609,7 @@
         <v>1926.0</v>
       </c>
       <c r="E198" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -3962,7 +3626,7 @@
         <v>1927.0</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -3979,7 +3643,7 @@
         <v>1928.0</v>
       </c>
       <c r="E200" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -3996,7 +3660,7 @@
         <v>1929.0</v>
       </c>
       <c r="E201" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -4013,7 +3677,7 @@
         <v>1930.0</v>
       </c>
       <c r="E202" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -4030,7 +3694,7 @@
         <v>1931.0</v>
       </c>
       <c r="E203" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -4047,7 +3711,7 @@
         <v>1932.0</v>
       </c>
       <c r="E204" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -4064,7 +3728,7 @@
         <v>1933.0</v>
       </c>
       <c r="E205" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -4081,7 +3745,7 @@
         <v>1934.0</v>
       </c>
       <c r="E206" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -4098,7 +3762,7 @@
         <v>1935.0</v>
       </c>
       <c r="E207" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -4115,7 +3779,7 @@
         <v>1936.0</v>
       </c>
       <c r="E208" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -4132,7 +3796,7 @@
         <v>1937.0</v>
       </c>
       <c r="E209" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -4149,7 +3813,7 @@
         <v>1938.0</v>
       </c>
       <c r="E210" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
@@ -4166,7 +3830,7 @@
         <v>1939.0</v>
       </c>
       <c r="E211" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -4183,7 +3847,7 @@
         <v>1940.0</v>
       </c>
       <c r="E212" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -4200,7 +3864,7 @@
         <v>1941.0</v>
       </c>
       <c r="E213" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -4217,7 +3881,7 @@
         <v>1942.0</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -4234,7 +3898,7 @@
         <v>1943.0</v>
       </c>
       <c r="E215" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -4251,7 +3915,7 @@
         <v>1944.0</v>
       </c>
       <c r="E216" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -4268,7 +3932,7 @@
         <v>1945.0</v>
       </c>
       <c r="E217" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -4285,7 +3949,7 @@
         <v>1946.0</v>
       </c>
       <c r="E218" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4302,7 +3966,7 @@
         <v>1947.0</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4319,7 +3983,7 @@
         <v>1948.0</v>
       </c>
       <c r="E220" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -4336,7 +4000,7 @@
         <v>1949.0</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4353,7 +4017,7 @@
         <v>1950.0</v>
       </c>
       <c r="E222" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -4370,7 +4034,7 @@
         <v>1951.0</v>
       </c>
       <c r="E223" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -4387,7 +4051,7 @@
         <v>1952.0</v>
       </c>
       <c r="E224" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -4404,7 +4068,7 @@
         <v>1953.0</v>
       </c>
       <c r="E225" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -4421,7 +4085,7 @@
         <v>1954.0</v>
       </c>
       <c r="E226" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4438,7 +4102,7 @@
         <v>1955.0</v>
       </c>
       <c r="E227" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -4455,7 +4119,7 @@
         <v>1956.0</v>
       </c>
       <c r="E228" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4472,7 +4136,7 @@
         <v>1957.0</v>
       </c>
       <c r="E229" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
@@ -4489,7 +4153,7 @@
         <v>1958.0</v>
       </c>
       <c r="E230" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -4506,7 +4170,7 @@
         <v>1959.0</v>
       </c>
       <c r="E231" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
@@ -4523,7 +4187,7 @@
         <v>1960.0</v>
       </c>
       <c r="E232" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4540,7 +4204,7 @@
         <v>1961.0</v>
       </c>
       <c r="E233" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4557,7 +4221,7 @@
         <v>1962.0</v>
       </c>
       <c r="E234" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4574,7 +4238,7 @@
         <v>1963.0</v>
       </c>
       <c r="E235" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4591,7 +4255,7 @@
         <v>1964.0</v>
       </c>
       <c r="E236" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4608,7 +4272,7 @@
         <v>1965.0</v>
       </c>
       <c r="E237" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4625,7 +4289,7 @@
         <v>1966.0</v>
       </c>
       <c r="E238" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4642,7 +4306,7 @@
         <v>1967.0</v>
       </c>
       <c r="E239" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4659,7 +4323,7 @@
         <v>1968.0</v>
       </c>
       <c r="E240" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4676,7 +4340,7 @@
         <v>1969.0</v>
       </c>
       <c r="E241" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4693,7 +4357,7 @@
         <v>1970.0</v>
       </c>
       <c r="E242" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4710,7 +4374,7 @@
         <v>1971.0</v>
       </c>
       <c r="E243" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4727,7 +4391,7 @@
         <v>1972.0</v>
       </c>
       <c r="E244" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -4744,7 +4408,7 @@
         <v>1973.0</v>
       </c>
       <c r="E245" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -4761,7 +4425,7 @@
         <v>1974.0</v>
       </c>
       <c r="E246" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -4778,7 +4442,7 @@
         <v>1975.0</v>
       </c>
       <c r="E247" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
@@ -4795,7 +4459,7 @@
         <v>1976.0</v>
       </c>
       <c r="E248" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -4812,7 +4476,7 @@
         <v>1977.0</v>
       </c>
       <c r="E249" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
@@ -4829,7 +4493,7 @@
         <v>1978.0</v>
       </c>
       <c r="E250" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -4846,7 +4510,7 @@
         <v>1979.0</v>
       </c>
       <c r="E251" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
@@ -4863,7 +4527,7 @@
         <v>1980.0</v>
       </c>
       <c r="E252" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
@@ -4880,7 +4544,7 @@
         <v>1981.0</v>
       </c>
       <c r="E253" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254">
@@ -4897,7 +4561,7 @@
         <v>1982.0</v>
       </c>
       <c r="E254" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -4914,7 +4578,7 @@
         <v>1983.0</v>
       </c>
       <c r="E255" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
@@ -4931,7 +4595,7 @@
         <v>1984.0</v>
       </c>
       <c r="E256" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257">
@@ -4948,7 +4612,7 @@
         <v>1985.0</v>
       </c>
       <c r="E257" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258">
@@ -4965,7 +4629,7 @@
         <v>1986.0</v>
       </c>
       <c r="E258" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259">
@@ -4982,7 +4646,7 @@
         <v>1987.0</v>
       </c>
       <c r="E259" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260">
@@ -4999,7 +4663,7 @@
         <v>1988.0</v>
       </c>
       <c r="E260" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261">
@@ -5016,7 +4680,7 @@
         <v>1989.0</v>
       </c>
       <c r="E261" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262">
@@ -5033,7 +4697,7 @@
         <v>1990.0</v>
       </c>
       <c r="E262" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="263">
@@ -5050,7 +4714,7 @@
         <v>1991.0</v>
       </c>
       <c r="E263" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264">
@@ -5067,7 +4731,7 @@
         <v>1992.0</v>
       </c>
       <c r="E264" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265">
@@ -5084,7 +4748,7 @@
         <v>1993.0</v>
       </c>
       <c r="E265" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266">
@@ -5101,7 +4765,7 @@
         <v>1994.0</v>
       </c>
       <c r="E266" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267">
@@ -5118,7 +4782,7 @@
         <v>1995.0</v>
       </c>
       <c r="E267" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268">
@@ -5135,7 +4799,7 @@
         <v>1996.0</v>
       </c>
       <c r="E268" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -5152,7 +4816,7 @@
         <v>1997.0</v>
       </c>
       <c r="E269" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270">
@@ -5169,7 +4833,7 @@
         <v>1998.0</v>
       </c>
       <c r="E270" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271">
@@ -5186,7 +4850,7 @@
         <v>1999.0</v>
       </c>
       <c r="E271" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272">
@@ -5203,7 +4867,7 @@
         <v>2000.0</v>
       </c>
       <c r="E272" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273">
@@ -5220,7 +4884,7 @@
         <v>2001.0</v>
       </c>
       <c r="E273" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274">
@@ -5237,7 +4901,7 @@
         <v>2002.0</v>
       </c>
       <c r="E274" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275">
@@ -5254,7 +4918,7 @@
         <v>2003.0</v>
       </c>
       <c r="E275" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276">
@@ -5271,7 +4935,7 @@
         <v>2004.0</v>
       </c>
       <c r="E276" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="277">
@@ -5288,7 +4952,7 @@
         <v>2005.0</v>
       </c>
       <c r="E277" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278">
@@ -5305,7 +4969,7 @@
         <v>2006.0</v>
       </c>
       <c r="E278" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279">
@@ -5322,7 +4986,7 @@
         <v>2007.0</v>
       </c>
       <c r="E279" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
     </row>
     <row r="280">
@@ -5339,7 +5003,7 @@
         <v>2008.0</v>
       </c>
       <c r="E280" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="281">
@@ -5356,7 +5020,7 @@
         <v>2009.0</v>
       </c>
       <c r="E281" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282">
@@ -5373,7 +5037,7 @@
         <v>2010.0</v>
       </c>
       <c r="E282" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283">
@@ -5390,7 +5054,7 @@
         <v>2011.0</v>
       </c>
       <c r="E283" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284">
@@ -5407,7 +5071,7 @@
         <v>2012.0</v>
       </c>
       <c r="E284" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5425,50 +5089,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
